--- a/TestData/ITCalculator_TestData.xlsx
+++ b/TestData/ITCalculator_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="192">
   <si>
     <t>Age</t>
   </si>
@@ -593,13 +593,18 @@
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Actual IT</t>
+  </si>
+  <si>
+    <t>Actual Net Sal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,23 +951,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD706"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,8 +984,17 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>21119.19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1028,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1045,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,7 +1062,7 @@
         <v>32693.78</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,7 +1079,7 @@
         <v>28109.19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1096,7 @@
         <v>43874.28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1113,7 @@
         <v>43280.04</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>1500001</v>
+        <v>150000.01</v>
       </c>
       <c r="D9" s="1">
         <v>42734.42</v>
@@ -1115,7 +1130,7 @@
         <v>82265.66</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>28792.44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1149,7 +1164,7 @@
         <v>10720.83</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1166,7 +1181,7 @@
         <v>10720.83</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1183,7 +1198,7 @@
         <v>44023.78</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,7 +1215,7 @@
         <v>41507.53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1232,7 @@
         <v>36577.03</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>1500003</v>
+        <v>15000.03</v>
       </c>
       <c r="D17" s="1">
         <v>42051.24</v>
@@ -1404,29 +1419,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="20" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">

--- a/TestData/ITCalculator_TestData.xlsx
+++ b/TestData/ITCalculator_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basic" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="190">
   <si>
     <t>Age</t>
   </si>
@@ -199,9 +199,6 @@
     <t>10266.5</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>7303.17</t>
   </si>
   <si>
@@ -590,9 +587,6 @@
   </si>
   <si>
     <t>2145.38</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Actual IT</t>
@@ -953,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -988,10 +982,10 @@
         <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1419,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,9 +1493,6 @@
       <c r="R1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1558,9 +1549,7 @@
       <c r="R2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S2" s="4"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1617,9 +1606,7 @@
       <c r="R3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S3" s="4"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1676,9 +1663,7 @@
       <c r="R4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S4" s="4"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1735,9 +1720,7 @@
       <c r="R5" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1783,20 +1766,18 @@
         <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="R6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="R6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1839,7 +1820,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>28</v>
@@ -1853,9 +1834,7 @@
       <c r="R7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1901,20 +1880,18 @@
         <v>38</v>
       </c>
       <c r="O8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1924,56 +1901,54 @@
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="P9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q9" s="4" t="s">
+      <c r="R9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -1983,22 +1958,22 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>54</v>
@@ -2007,32 +1982,30 @@
         <v>28</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2042,34 +2015,34 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="K11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>28</v>
@@ -2078,20 +2051,18 @@
         <v>38</v>
       </c>
       <c r="O11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="Q11" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -2101,31 +2072,31 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>28</v>
@@ -2140,17 +2111,15 @@
         <v>28</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -2160,34 +2129,34 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>28</v>
@@ -2196,20 +2165,18 @@
         <v>49</v>
       </c>
       <c r="O13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q13" s="4" t="s">
+      <c r="R13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -2219,56 +2186,54 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="O14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S14" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2278,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
@@ -2287,7 +2252,7 @@
         <v>28</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>28</v>
@@ -2305,7 +2270,7 @@
         <v>28</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>28</v>
@@ -2314,20 +2279,18 @@
         <v>28</v>
       </c>
       <c r="O15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="Q15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="S15" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S15" s="4"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -2337,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>55</v>
@@ -2349,19 +2312,19 @@
         <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>45</v>
@@ -2370,23 +2333,21 @@
         <v>28</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="R16" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S16" s="4"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -2396,13 +2357,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>27</v>
@@ -2417,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>28</v>
@@ -2432,20 +2393,18 @@
         <v>49</v>
       </c>
       <c r="O17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="S17" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S17" s="4"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -2458,53 +2417,51 @@
         <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O18" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="Q18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -2514,7 +2471,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>28</v>
@@ -2547,23 +2504,21 @@
         <v>28</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="Q19" s="4" t="s">
+      <c r="R19" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -2573,56 +2528,54 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="Q20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -2632,34 +2585,34 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>131</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>28</v>
@@ -2668,20 +2621,18 @@
         <v>38</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="Q21" s="4" t="s">
+      <c r="R21" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -2691,56 +2642,54 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="Q22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="Q22" s="4" t="s">
+      <c r="R22" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="S22" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -2750,56 +2699,54 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="Q23" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="R23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="S23" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S23" s="4"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -2812,53 +2759,51 @@
         <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="4" t="s">
+      <c r="P24" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="R24" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S24" s="4"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -2868,7 +2813,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>28</v>
@@ -2901,23 +2846,21 @@
         <v>28</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -2927,7 +2870,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>44</v>
@@ -2963,20 +2906,18 @@
         <v>28</v>
       </c>
       <c r="O26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="R26" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S26" s="4"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -2989,7 +2930,7 @@
         <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>48</v>
@@ -3022,20 +2963,18 @@
         <v>49</v>
       </c>
       <c r="O27" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P27" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="R27" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S27" s="4"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -3045,7 +2984,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>28</v>
@@ -3066,7 +3005,7 @@
         <v>28</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>28</v>
@@ -3081,20 +3020,18 @@
         <v>38</v>
       </c>
       <c r="O28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="P28" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="P28" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="Q28" s="4" t="s">
+      <c r="R28" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="S28" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S28" s="4"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -3104,10 +3041,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>36</v>
@@ -3137,23 +3074,21 @@
         <v>28</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="R29" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S29" s="4"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -3163,56 +3098,54 @@
         <v>5</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P30" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O30" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="Q30" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S30" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -3222,56 +3155,54 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" s="4" t="s">
+      <c r="P31" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="Q31" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="R31" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S31" s="4"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
@@ -3284,10 +3215,10 @@
         <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
@@ -3314,23 +3245,21 @@
         <v>28</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>28</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q32" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S32" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="S32" s="5"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
@@ -3340,56 +3269,54 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" s="4" t="s">
+      <c r="P33" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="P33" s="4" t="s">
+      <c r="Q33" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Q33" s="4" t="s">
+      <c r="R33" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S33" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:S33"/>
